--- a/Study 3/Shocks/GCAM/CP_EI - 2060.xlsx
+++ b/Study 3/Shocks/GCAM/CP_EI - 2060.xlsx
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.08699385014725761</v>
+        <v>0.08699385014725759</v>
       </c>
     </row>
     <row r="6">
@@ -11842,7 +11842,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.2619599211235933</v>
+        <v>0.2619599211235932</v>
       </c>
     </row>
     <row r="14">
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.04003956119764014</v>
+        <v>0.04003956119764013</v>
       </c>
     </row>
     <row r="22">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.3087484597577049</v>
+        <v>0.3087484597577048</v>
       </c>
     </row>
   </sheetData>
